--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_21.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(63.629047, 74.101247)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.366281, 10.96619)]</t>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.700000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.56, 11.22)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1944444444444444</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['G', 'A', 'D', 'D/b7'], ['A', 'D', 'D/b7', 'G/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['C', 'D', 'G', 'G'], ['D', 'G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[('0:00:29.965374', '0:00:35.781972'), ('0:00:31.439841', '0:00:37.291269')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:05.382154', '0:01:17.688730'), ('0:00:59.333356', '0:01:08.841927')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.2, 17.38)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:02.860000', '0:00:05.300000'), ('0:00:00.380000', '0:00:03.700000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C', 'F', 'C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:00:16.179070', '0:00:27.510408')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:20.432000', '0:00:30.105000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[('0:00:36.600000', '0:00:39')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>schubert-winterreise_113</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[('0:00:39.800000', '0:00:48.280000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:51.280000', '0:02:04.160000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
